--- a/mreportsu21.xlsx
+++ b/mreportsu21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarolopezmolina/Desktop/alnassrsaudi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA843A-6D0F-B947-A639-26B945EEA681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F446AEC-543F-0642-8656-0B96D18F37C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>Potential</t>
-  </si>
-  <si>
     <t>League</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Agent</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>Decision</t>
   </si>
   <si>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Sec. Position</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -462,58 +462,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
